--- a/src/Original/results_allchains.xlsx
+++ b/src/Original/results_allchains.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21333" windowHeight="8753" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21333" windowHeight="8753" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="2" r:id="rId1"/>
@@ -6398,6 +6398,8 @@
         <c:axId val="537122168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8676,6 +8678,8 @@
         <c:axId val="540957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="32500"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12878,7 +12882,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12889,7 +12893,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="69" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13295,7 +13299,7 @@
   <dimension ref="A1:Q301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -13315,7 +13319,7 @@
     <col min="14" max="14" width="1.8203125" customWidth="1"/>
     <col min="15" max="15" width="9.87890625" customWidth="1"/>
     <col min="16" max="16" width="10.29296875" customWidth="1"/>
-    <col min="17" max="17" width="9.29296875" customWidth="1"/>
+    <col min="17" max="17" width="10.52734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
